--- a/SE2020-G02-设计阶段/阶段任务细则.xlsx
+++ b/SE2020-G02-设计阶段/阶段任务细则.xlsx
@@ -51,7 +51,7 @@
     <t>比赛/悬赏/排位提示设计</t>
   </si>
   <si>
-    <t>比赛/悬赏/排位图*3</t>
+    <t>比赛/悬赏/排位程序流程图</t>
   </si>
   <si>
     <t>主页/注册+登录/管理员PDL</t>
@@ -99,7 +99,7 @@
     <t>用户本人/其他人/练习提示设计</t>
   </si>
   <si>
-    <t>用户本人/其他人/练习图*3</t>
+    <t>用户本人/其他人/练习盒图</t>
   </si>
   <si>
     <t>比赛/悬赏/排名PDL</t>
@@ -135,7 +135,7 @@
     <t>主页/注册+登录/管理员提示设计</t>
   </si>
   <si>
-    <t>主页/注册+登录/管理员图*3</t>
+    <t>主页/注册+登录/管理员PAD图</t>
   </si>
   <si>
     <t>用户本人/其他人/练习PDL</t>
@@ -155,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -177,21 +177,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,9 +289,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,9 +306,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,97 +319,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -329,187 +329,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,21 +520,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,20 +540,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,21 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -620,6 +594,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -628,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,8 +1139,8 @@
   <sheetPr/>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1287,7 +1287,6 @@
       <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">

--- a/SE2020-G02-设计阶段/阶段任务细则.xlsx
+++ b/SE2020-G02-设计阶段/阶段任务细则.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>任务清单</t>
   </si>
@@ -36,48 +36,96 @@
     <t>PPT修改</t>
   </si>
   <si>
+    <t>潘言</t>
+  </si>
+  <si>
+    <t>PPT初稿</t>
+  </si>
+  <si>
     <t>用户手册文档</t>
   </si>
   <si>
+    <t>业务流图</t>
+  </si>
+  <si>
     <t>排位/悬赏/练习/出题/做题/管理员界面原型</t>
   </si>
   <si>
+    <t>HIPO图</t>
+  </si>
+  <si>
     <t>项目计划更新</t>
   </si>
   <si>
+    <t>数据库设计图</t>
+  </si>
+  <si>
     <t>比赛/悬赏/排位接口设计</t>
   </si>
   <si>
+    <t>用户部分界面原型</t>
+  </si>
+  <si>
     <t>比赛/悬赏/排位提示设计</t>
   </si>
   <si>
+    <t>系统设计说明文档</t>
+  </si>
+  <si>
     <t>比赛/悬赏/排位程序流程图</t>
   </si>
   <si>
+    <t>数据库设计说明文档</t>
+  </si>
+  <si>
     <t>主页/注册+登录/管理员PDL</t>
   </si>
   <si>
+    <t>主页/注册+登录/管理员接口设计</t>
+  </si>
+  <si>
     <t>所有提示框的制作</t>
   </si>
   <si>
+    <t>主页/注册+登录/管理员提示设计</t>
+  </si>
+  <si>
     <t>余下原型所有细化</t>
   </si>
   <si>
+    <t>主页/注册+登录/管理员PAD图</t>
+  </si>
+  <si>
     <t>管理员用户寻找确定沟通</t>
   </si>
   <si>
+    <t>用户本人/其他人/练习PDL</t>
+  </si>
+  <si>
     <t>1206会议纪要</t>
   </si>
   <si>
+    <t>1126会议纪要</t>
+  </si>
+  <si>
     <t>合计</t>
   </si>
   <si>
+    <t>1201会议纪要</t>
+  </si>
+  <si>
+    <t>1203会议纪要</t>
+  </si>
+  <si>
     <t>张鑫</t>
   </si>
   <si>
     <t>比赛部分界面原型</t>
   </si>
   <si>
+    <t>1208会议纪要</t>
+  </si>
+  <si>
     <t>软件测试计划文档</t>
   </si>
   <si>
@@ -105,49 +153,10 @@
     <t>比赛/悬赏/排名PDL</t>
   </si>
   <si>
-    <t>潘言</t>
-  </si>
-  <si>
-    <t>PPT初稿</t>
-  </si>
-  <si>
-    <t>业务流图</t>
-  </si>
-  <si>
-    <t>HIPO图</t>
-  </si>
-  <si>
-    <t>数据库设计图</t>
-  </si>
-  <si>
-    <t>用户部分界面原型</t>
-  </si>
-  <si>
-    <t>系统设计说明文档</t>
-  </si>
-  <si>
-    <t>数据库设计说明文档</t>
-  </si>
-  <si>
-    <t>主页/注册+登录/管理员接口设计</t>
-  </si>
-  <si>
-    <t>主页/注册+登录/管理员提示设计</t>
-  </si>
-  <si>
-    <t>主页/注册+登录/管理员PAD图</t>
-  </si>
-  <si>
-    <t>用户本人/其他人/练习PDL</t>
-  </si>
-  <si>
-    <t>1126会议纪要</t>
-  </si>
-  <si>
-    <t>1201会议纪要</t>
-  </si>
-  <si>
-    <t>1203会议纪要</t>
+    <t>运行环境和开发环境的网络架构图</t>
+  </si>
+  <si>
+    <t>IPC备案</t>
   </si>
 </sst>
 </file>
@@ -155,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -173,13 +182,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,10 +194,77 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,13 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -223,7 +285,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,17 +307,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,58 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -329,187 +338,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +551,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,30 +615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -609,17 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -628,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,19 +649,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,116 +670,116 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,11 +792,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1137,21 +1152,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="5" width="13.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="43.4444444444444" style="1" customWidth="1"/>
+    <col min="9" max="11" width="13.2222222222222" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:11">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1164,12 +1182,26 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="2:5">
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
       <c r="B2" s="2"/>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2" s="2"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1179,38 +1211,82 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" s="1">
+        <v>85</v>
+      </c>
+      <c r="E3" s="4">
+        <f>E15*3*C15/(C15+C29+I18)</f>
+        <v>86.123595505618</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>80</v>
+      </c>
+      <c r="K3" s="4">
+        <f>K18*3*I18/(C15+C29+I18)</f>
+        <v>84.6067415730337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="3"/>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>85</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="3"/>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>85</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1219,11 +1295,22 @@
         <v>85</v>
       </c>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="3"/>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>85</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1232,11 +1319,22 @@
         <v>85</v>
       </c>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="3"/>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>80</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1245,31 +1343,70 @@
         <v>85</v>
       </c>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="3"/>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>85</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
+      <c r="D9" s="1">
+        <v>85</v>
+      </c>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="3"/>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>85</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
+      <c r="D10" s="1">
+        <v>80</v>
+      </c>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="3"/>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>85</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1278,21 +1415,46 @@
         <v>85</v>
       </c>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" s="3"/>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>85</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>90</v>
       </c>
       <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" s="3"/>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>85</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1301,11 +1463,22 @@
         <v>85</v>
       </c>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" s="3"/>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>80</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1314,31 +1487,66 @@
         <v>85</v>
       </c>
       <c r="E14" s="4"/>
-    </row>
-    <row r="15" customFormat="1" spans="1:5">
+      <c r="G14" s="3"/>
+      <c r="H14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>90</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:11">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <f>SUM(C3:C14)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
         <f>SUMPRODUCT(C3:C14*D3:D14)</f>
-        <v>1620</v>
-      </c>
-      <c r="E15" s="4">
+        <v>2555</v>
+      </c>
+      <c r="E15" s="6">
         <f>SUMPRODUCT(C3:C14*D3:D14)/C15</f>
-        <v>52.258064516129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>85.1666666666667</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>80</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="7:11">
+      <c r="G16" s="3"/>
+      <c r="H16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>85</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1346,12 +1554,26 @@
       <c r="D17" s="1">
         <v>85</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="4">
+        <f>E29*3*C29/(C15+C29+I18)</f>
+        <v>84.2696629213483</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>85</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -1360,31 +1582,52 @@
         <v>85</v>
       </c>
       <c r="E18" s="4"/>
+      <c r="H18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="1">
+        <f>SUM(I3:I17)</f>
+        <v>30</v>
+      </c>
+      <c r="J18" s="1">
+        <f>SUMPRODUCT((I3:I17)*(J3:J17))</f>
+        <v>2510</v>
+      </c>
+      <c r="K18" s="6">
+        <f>SUMPRODUCT(I3:I17*J3:J17)/I18</f>
+        <v>83.6666666666667</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>85</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>85</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -1397,7 +1640,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1410,7 +1653,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1423,7 +1666,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -1436,245 +1679,91 @@
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>85</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
       </c>
+      <c r="D26" s="1">
+        <v>85</v>
+      </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" customFormat="1" spans="1:5">
+    <row r="27" spans="1:5">
       <c r="A27" s="3"/>
-      <c r="B27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27">
-        <f>SUM(C17:C26)</f>
-        <v>25</v>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
       </c>
       <c r="D27" s="1">
-        <f>SUMPRODUCT(C17:C26*D17:D26)</f>
-        <v>1235</v>
-      </c>
-      <c r="E27" s="4">
-        <f>SUMPRODUCT(C17:C26*D17:D26)/C27</f>
-        <v>49.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>90</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:10">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C17:C28)</f>
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
       <c r="D29" s="1">
-        <v>80</v>
-      </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3"/>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>85</v>
-      </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3"/>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3"/>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>85</v>
-      </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3"/>
-      <c r="B33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1">
-        <v>80</v>
-      </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3"/>
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1">
-        <v>85</v>
-      </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="3"/>
-      <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="1">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1">
-        <v>85</v>
-      </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3"/>
-      <c r="B36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="1">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1">
-        <v>85</v>
-      </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="3"/>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1">
-        <v>85</v>
-      </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="3"/>
-      <c r="B38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3"/>
-      <c r="B39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="3"/>
-      <c r="B40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>90</v>
-      </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="3"/>
-      <c r="B41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>80</v>
-      </c>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3"/>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>85</v>
-      </c>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="1">
-        <f>SUM(C29:C42)</f>
-        <v>29</v>
-      </c>
-      <c r="D43" s="1">
-        <f>SUMPRODUCT((C29:C42)*(D29:D42))</f>
-        <v>1930</v>
-      </c>
-      <c r="E43" s="4">
-        <f>SUMPRODUCT(C29:C42*D29:D42)/C43</f>
-        <v>66.551724137931</v>
-      </c>
+        <f>SUMPRODUCT(C17:C28*D17:D28)</f>
+        <v>2500</v>
+      </c>
+      <c r="E29" s="6">
+        <f>SUMPRODUCT(C17:C28*D17:D28)/C29</f>
+        <v>86.2068965517241</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="J29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A29:A42"/>
+    <mergeCell ref="A17:A28"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="E3:E14"/>
-    <mergeCell ref="E17:E26"/>
-    <mergeCell ref="E29:E42"/>
+    <mergeCell ref="E17:E28"/>
+    <mergeCell ref="G3:G17"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K3:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/SE2020-G02-设计阶段/阶段任务细则.xlsx
+++ b/SE2020-G02-设计阶段/阶段任务细则.xlsx
@@ -164,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -182,6 +182,111 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,39 +300,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,89 +328,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -338,19 +338,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,163 +458,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +529,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,20 +582,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,30 +604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -629,6 +618,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -637,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="K3" s="4">
         <f>K18*3*I18/(C15+C29+I18)</f>
-        <v>84.6067415730337</v>
+        <v>82.0786516853933</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1303,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K6" s="4"/>
     </row>
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -1591,11 +1591,11 @@
       </c>
       <c r="J18" s="1">
         <f>SUMPRODUCT((I3:I17)*(J3:J17))</f>
-        <v>2510</v>
+        <v>2435</v>
       </c>
       <c r="K18" s="6">
         <f>SUMPRODUCT(I3:I17*J3:J17)/I18</f>
-        <v>83.6666666666667</v>
+        <v>81.1666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:5">
